--- a/data/trans_media/Q17B-Edad-trans_media.xlsx
+++ b/data/trans_media/Q17B-Edad-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -729,12 +729,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,45</t>
+          <t>1,13; 1,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,22</t>
+          <t>1,06; 1,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,2</t>
+          <t>1,05; 1,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,49</t>
+          <t>1,16; 1,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,69</t>
+          <t>1,13; 1,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,08; 1,21</t>
+          <t>1,09; 1,2</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,41</t>
+          <t>1,17; 1,4</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,49</t>
+          <t>1,11; 1,48</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,64</t>
+          <t>1,18; 1,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 1,68</t>
+          <t>1,24; 1,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 1,4</t>
+          <t>1,14; 1,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 1,85</t>
+          <t>1,27; 1,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,42</t>
+          <t>1,18; 1,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,22; 1,43</t>
+          <t>1,22; 1,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,24; 1,67</t>
+          <t>1,24; 1,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 1,82</t>
+          <t>1,21; 1,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 1,62</t>
+          <t>1,18; 1,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,54</t>
+          <t>1,17; 1,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 1,48</t>
+          <t>1,18; 1,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 1,45</t>
+          <t>1,23; 1,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,36</t>
+          <t>1,14; 1,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,12 +1044,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 1,49</t>
+          <t>1,23; 1,49</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 1,45</t>
+          <t>1,24; 1,44</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,49</t>
+          <t>1,12; 1,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,28</t>
+          <t>1,09; 1,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 1,72</t>
+          <t>1,22; 1,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,18; 1,44</t>
+          <t>1,17; 1,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 1,52</t>
+          <t>1,15; 1,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,37</t>
+          <t>1,18; 1,38</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 1,31</t>
+          <t>1,18; 1,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 1,5</t>
+          <t>1,22; 1,56</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,42</t>
+          <t>1,12; 1,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 1,69</t>
+          <t>1,26; 1,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,21; 1,95</t>
+          <t>1,23; 2,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1309,12 +1309,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 1,27</t>
+          <t>1,12; 1,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,22; 1,63</t>
+          <t>1,23; 1,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,12 +1324,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,31</t>
+          <t>1,15; 1,31</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,21; 1,42</t>
+          <t>1,2; 1,41</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,41</t>
+          <t>1,07; 1,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,18; 1,39</t>
+          <t>1,19; 1,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,23; 1,64</t>
+          <t>1,23; 1,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,22; 1,49</t>
+          <t>1,21; 1,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,28</t>
+          <t>1,1; 1,31</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,23; 1,43</t>
+          <t>1,22; 1,44</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,25; 1,43</t>
+          <t>1,24; 1,43</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,24; 1,38</t>
+          <t>1,24; 1,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,25; 1,44</t>
+          <t>1,25; 1,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,27</t>
+          <t>1,17; 1,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,26; 1,41</t>
+          <t>1,26; 1,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,12 +1604,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,19; 1,27</t>
+          <t>1,18; 1,27</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,25; 1,34</t>
+          <t>1,26; 1,34</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
